--- a/Semester 1/Discrete Wiskunde/oefeningen/Velden/13.xlsx
+++ b/Semester 1/Discrete Wiskunde/oefeningen/Velden/13.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -24,6 +24,31 @@
     <author>Auteur</author>
   </authors>
   <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{25D6B4DD-3A42-4B1C-9201-D18E1DCACFA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 + 1 = 0, maar er is geen enkele veelterm met enkel 0
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{DC5C6FE2-2893-43E1-9179-6776C6F0B413}">
       <text>
         <r>
@@ -41,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 index 0 = 1
@@ -70,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 index 0 = 1
@@ -172,6 +197,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{147A727E-2988-49A2-9F5A-080A314148AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:
+4 + 1 = 0, maar er is geen veelterm met enkel 0</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -754,16 +794,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -775,6 +809,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Typewriter"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -884,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,14 +958,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,30 +1329,30 @@
         <v>16</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="12"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="2:47" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -1484,18 +1531,21 @@
         <v>6</v>
       </c>
       <c r="R4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="13">
         <v>1</v>
       </c>
       <c r="V4" s="4">
         <v>0</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="2"/>
       <c r="AU4" s="3">
         <v>0</v>
       </c>
@@ -1553,7 +1603,7 @@
       <c r="S5" s="3">
         <v>1</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="V5" s="4">
@@ -1562,7 +1612,10 @@
       <c r="W5" s="1">
         <v>17</v>
       </c>
-      <c r="X5" s="2"/>
+      <c r="X5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="2"/>
       <c r="AU5" s="3">
         <v>1</v>
       </c>
@@ -1620,13 +1673,32 @@
       <c r="S6" s="3">
         <v>2</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4">
         <v>2</v>
       </c>
-      <c r="Y6" s="2"/>
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AK6" s="2"/>
       <c r="AU6" s="3">
         <v>2</v>
       </c>
@@ -1684,13 +1756,34 @@
       <c r="S7" s="3">
         <v>3</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="V7" s="4">
         <v>3</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AL7" s="2"/>
       <c r="AU7" s="3">
         <v>3</v>
       </c>
@@ -1748,13 +1841,36 @@
       <c r="S8" s="3">
         <v>4</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="V8" s="4">
         <v>4</v>
       </c>
-      <c r="AA8" s="2"/>
+      <c r="W8" s="1">
+        <v>11</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AM8" s="2"/>
       <c r="AU8" s="3">
         <v>4</v>
       </c>
@@ -1812,13 +1928,38 @@
       <c r="S9" s="3">
         <v>5</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="V9" s="4">
         <v>5</v>
       </c>
-      <c r="AB9" s="2"/>
+      <c r="W9" s="1">
+        <v>13</v>
+      </c>
+      <c r="X9" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AN9" s="2"/>
       <c r="AU9" s="3">
         <v>5</v>
       </c>
@@ -1876,13 +2017,40 @@
       <c r="S10" s="3">
         <v>6</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <v>2</v>
       </c>
       <c r="V10" s="4">
         <v>6</v>
       </c>
-      <c r="AC10" s="2"/>
+      <c r="W10" s="1">
+        <v>18</v>
+      </c>
+      <c r="X10" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AO10" s="2"/>
       <c r="AU10" s="3">
         <v>6</v>
       </c>
@@ -1940,13 +2108,42 @@
       <c r="S11" s="3">
         <v>7</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V11" s="4">
         <v>7</v>
       </c>
-      <c r="AD11" s="2"/>
+      <c r="W11" s="1">
+        <v>21</v>
+      </c>
+      <c r="X11" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AP11" s="2"/>
       <c r="AU11" s="3">
         <v>7</v>
       </c>
@@ -2004,13 +2201,44 @@
       <c r="S12" s="3">
         <v>8</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="4">
         <v>8</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="W12" s="1">
+        <v>4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AQ12" s="2"/>
       <c r="AU12" s="3">
         <v>8</v>
       </c>
@@ -2068,13 +2296,50 @@
       <c r="S13" s="3">
         <v>9</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="V13" s="4">
         <v>9</v>
       </c>
-      <c r="AF13" s="2"/>
+      <c r="W13" s="1">
+        <v>19</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AL13" s="1">
+        <f ca="1">+AL9:ZZ13</f>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2"/>
       <c r="AU13" s="3">
         <v>9</v>
       </c>
@@ -2132,13 +2397,48 @@
       <c r="S14" s="3">
         <v>10</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="U14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="V14" s="4">
         <v>10</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>17</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>13</v>
+      </c>
+      <c r="AF14" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AS14" s="2"/>
       <c r="AU14" s="3">
         <v>10</v>
       </c>
@@ -2196,13 +2496,50 @@
       <c r="S15" s="3">
         <v>11</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="V15" s="4">
         <v>11</v>
       </c>
-      <c r="AH15" s="2"/>
+      <c r="W15" s="1">
+        <v>9</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>18</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>17</v>
+      </c>
+      <c r="AI15" s="15"/>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="3">
         <v>11</v>
       </c>
@@ -2260,13 +2597,49 @@
       <c r="S16" s="3">
         <v>12</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>4</v>
       </c>
       <c r="V16" s="4">
         <v>12</v>
       </c>
-      <c r="AI16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>20</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>19</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>11</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>18</v>
+      </c>
       <c r="AU16" s="3">
         <v>12</v>
       </c>
@@ -2324,13 +2697,62 @@
       <c r="S17" s="3">
         <v>13</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="U17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="4">
         <v>13</v>
       </c>
-      <c r="AJ17" s="2"/>
+      <c r="W17" s="1">
+        <v>22</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="15">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>23</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>21</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>20</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>16</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
       <c r="AU17" s="3">
         <v>13</v>
       </c>
@@ -2343,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
         <v>7</v>
@@ -2388,13 +2810,64 @@
       <c r="S18" s="3">
         <v>14</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="4">
         <v>14</v>
       </c>
-      <c r="AK18" s="2"/>
+      <c r="W18" s="1">
+        <v>15</v>
+      </c>
+      <c r="X18" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="15">
+        <v>20</v>
+      </c>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
       <c r="AU18" s="3">
         <v>14</v>
       </c>
@@ -2450,109 +2923,658 @@
         <v>14</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="U19" s="13" t="s">
+      <c r="U19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="V19" s="4">
         <v>15</v>
       </c>
-      <c r="AL19" s="2"/>
+      <c r="W19" s="1">
+        <v>10</v>
+      </c>
+      <c r="X19" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>22</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>18</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>7</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>21</v>
+      </c>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
       <c r="AU19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U20" s="13" t="s">
+      <c r="U20" s="12" t="s">
         <v>33</v>
       </c>
       <c r="V20" s="4">
         <v>16</v>
       </c>
-      <c r="AM20" s="2"/>
+      <c r="W20" s="1">
+        <v>20</v>
+      </c>
+      <c r="X20" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>23</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>15</v>
+      </c>
+      <c r="AK20" s="15">
+        <v>19</v>
+      </c>
+      <c r="AL20" s="15">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="15">
+        <v>22</v>
+      </c>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
       <c r="AU20" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="12" t="s">
         <v>34</v>
       </c>
       <c r="V21" s="4">
         <v>17</v>
       </c>
-      <c r="AN21" s="2"/>
+      <c r="W21" s="1">
+        <v>14</v>
+      </c>
+      <c r="X21" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="15">
+        <v>16</v>
+      </c>
+      <c r="AL21" s="15">
+        <v>20</v>
+      </c>
+      <c r="AM21" s="15">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="15">
+        <v>23</v>
+      </c>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
       <c r="AU21" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <v>3</v>
       </c>
       <c r="V22" s="4">
         <v>18</v>
       </c>
-      <c r="AO22" s="2"/>
+      <c r="W22" s="1">
+        <v>12</v>
+      </c>
+      <c r="X22" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>17</v>
+      </c>
+      <c r="AM22" s="15">
+        <v>21</v>
+      </c>
+      <c r="AN22" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
       <c r="AU22" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="12" t="s">
         <v>35</v>
       </c>
       <c r="V23" s="4">
         <v>19</v>
       </c>
-      <c r="AP23" s="2"/>
+      <c r="W23" s="1">
+        <v>8</v>
+      </c>
+      <c r="X23" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>7</v>
+      </c>
+      <c r="AK23" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="15">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>18</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>22</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>11</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
       <c r="AU23" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U24" s="13" t="s">
+      <c r="U24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="V24" s="4">
         <v>20</v>
       </c>
-      <c r="AQ24" s="2"/>
+      <c r="W24" s="1">
+        <v>7</v>
+      </c>
+      <c r="X24" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>17</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>16</v>
+      </c>
+      <c r="AJ24" s="15">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="15">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="15">
+        <v>19</v>
+      </c>
+      <c r="AO24" s="15">
+        <v>23</v>
+      </c>
+      <c r="AP24" s="15">
+        <v>12</v>
+      </c>
+      <c r="AQ24" s="15">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
       <c r="AU24" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="12" t="s">
         <v>36</v>
       </c>
       <c r="V25" s="4">
         <v>21</v>
       </c>
-      <c r="AR25" s="2"/>
+      <c r="W25" s="1">
+        <v>23</v>
+      </c>
+      <c r="X25" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>17</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>9</v>
+      </c>
+      <c r="AM25" s="15">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO25" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="15">
+        <v>13</v>
+      </c>
+      <c r="AR25" s="15">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
       <c r="AU25" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U26" s="13" t="s">
+      <c r="U26" s="12" t="s">
         <v>22</v>
       </c>
       <c r="V26" s="4">
         <v>22</v>
       </c>
-      <c r="AS26" s="2"/>
+      <c r="W26" s="1">
+        <v>3</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ26" s="15">
+        <v>8</v>
+      </c>
+      <c r="AK26" s="15">
+        <v>18</v>
+      </c>
+      <c r="AL26" s="15">
+        <v>12</v>
+      </c>
+      <c r="AM26" s="15">
+        <v>10</v>
+      </c>
+      <c r="AN26" s="15">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="15">
+        <v>5</v>
+      </c>
+      <c r="AP26" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="15">
+        <v>14</v>
+      </c>
+      <c r="AS26" s="15">
+        <v>4</v>
+      </c>
+      <c r="AT26" s="15"/>
       <c r="AU26" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="V27" s="4">
         <v>23</v>
       </c>
-      <c r="AT27" s="2"/>
+      <c r="W27" s="1">
+        <v>16</v>
+      </c>
+      <c r="X27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>17</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="1">
+        <v>21</v>
+      </c>
+      <c r="AJ27" s="15">
+        <v>14</v>
+      </c>
+      <c r="AK27" s="15">
+        <v>9</v>
+      </c>
+      <c r="AL27" s="15">
+        <v>19</v>
+      </c>
+      <c r="AM27" s="15">
+        <v>13</v>
+      </c>
+      <c r="AN27" s="15">
+        <v>11</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>7</v>
+      </c>
+      <c r="AP27" s="15">
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="15">
+        <v>22</v>
+      </c>
+      <c r="AR27" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="15">
+        <v>15</v>
+      </c>
+      <c r="AT27" s="15">
+        <v>5</v>
+      </c>
       <c r="AU27" s="3">
         <v>23</v>
       </c>
